--- a/2/Vadim/3 kurse/EPU/2.2 лаба Dkfljcbr.xlsx
+++ b/2/Vadim/3 kurse/EPU/2.2 лаба Dkfljcbr.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,10 +562,10 @@
       <c r="F3" s="1"/>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -577,11 +577,11 @@
       </c>
       <c r="L3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -607,7 +607,7 @@
       <c r="F4" s="1"/>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="10">
         <v>5</v>
@@ -655,23 +655,23 @@
         <v>0</v>
       </c>
       <c r="I5" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="6"/>
       <c r="Q5" s="8"/>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" ca="1" si="4"/>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">INDIRECT(ADDRESS($I7+2,2))</f>
@@ -754,15 +754,15 @@
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="5"/>
       <c r="Q7" s="8"/>
@@ -789,7 +789,7 @@
       <c r="F8" s="1"/>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="10">
         <v>13</v>
@@ -837,25 +837,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="10">
-        <v>14</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -883,25 +869,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="10">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="5"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -1023,7 +995,7 @@
       <c r="F14" s="1"/>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -1067,7 +1039,7 @@
       <c r="F16" s="1"/>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -1089,7 +1061,7 @@
       <c r="F17" s="1"/>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
@@ -1134,11 +1106,11 @@
       </c>
       <c r="X19">
         <f>G3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <f>G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <f>G5</f>
@@ -1167,7 +1139,7 @@
       </c>
       <c r="Y20">
         <f>G8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <f>G9</f>
@@ -1233,7 +1205,7 @@
       <c r="V22" s="13"/>
       <c r="W22">
         <f>G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <f>G15</f>
@@ -1241,11 +1213,11 @@
       </c>
       <c r="Y22">
         <f>G16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <f>G17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
